--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Dev Information Technology Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -597,7 +597,7 @@
         <v>44.89</v>
       </c>
       <c r="G2">
-        <v>31.565</v>
+        <v>31.56</v>
       </c>
       <c r="H2">
         <v>2.67</v>
@@ -633,7 +633,7 @@
         <v>-0.14</v>
       </c>
       <c r="S2">
-        <v>-0.035</v>
+        <v>-0.04</v>
       </c>
       <c r="T2">
         <v>0.49</v>
@@ -683,7 +683,7 @@
         <v>45.41</v>
       </c>
       <c r="G3">
-        <v>31.565</v>
+        <v>31.56</v>
       </c>
       <c r="H3">
         <v>3.04</v>
@@ -719,7 +719,7 @@
         <v>-0.06</v>
       </c>
       <c r="S3">
-        <v>-0.035</v>
+        <v>-0.04</v>
       </c>
       <c r="T3">
         <v>1.14</v>
@@ -769,7 +769,7 @@
         <v>56.86</v>
       </c>
       <c r="G4">
-        <v>31.565</v>
+        <v>31.56</v>
       </c>
       <c r="H4">
         <v>5.69</v>
@@ -826,10 +826,10 @@
         <v>7.28</v>
       </c>
       <c r="Z4">
-        <v>0.3033333333333334</v>
+        <v>0.3</v>
       </c>
       <c r="AA4">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="AB4">
         <v>5</v>
@@ -977,7 +977,7 @@
         <v>0.09</v>
       </c>
       <c r="S6">
-        <v>-0.035</v>
+        <v>-0.04</v>
       </c>
       <c r="T6">
         <v>2.14</v>
@@ -1149,7 +1149,7 @@
         <v>-0.11</v>
       </c>
       <c r="S8">
-        <v>-0.035</v>
+        <v>-0.04</v>
       </c>
       <c r="T8">
         <v>0.47</v>
@@ -1173,7 +1173,7 @@
         <v>0.28</v>
       </c>
       <c r="AA8">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="AB8">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>0.28</v>
       </c>
       <c r="AA9">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="AB9">
         <v>5</v>
@@ -1345,7 +1345,7 @@
         <v>0.55</v>
       </c>
       <c r="AA10">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="AB10">
         <v>5</v>
@@ -1371,7 +1371,7 @@
         <v>158.7</v>
       </c>
       <c r="G11">
-        <v>31.565</v>
+        <v>31.56</v>
       </c>
       <c r="H11">
         <v>71.95999999999999</v>
@@ -1431,7 +1431,7 @@
         <v>0.55</v>
       </c>
       <c r="AA11">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="AB11">
         <v>5</v>
